--- a/doc/Design_Review_checklist_Group1.xlsx
+++ b/doc/Design_Review_checklist_Group1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dugun\Desktop\DUGUNEPALLI SUNIL KUMAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dugun\Desktop\Final Documents Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E34572-06EE-4369-AAAF-B72D61A61003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE475015-1EE2-4754-8D61-998D73CB49DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C326FD05-A973-4AB8-BA8B-97737796DF75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C326FD05-A973-4AB8-BA8B-97737796DF75}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>DESIGN REVIEW CHECKLIST</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Does the design take care to allocate memory for the resources at init time?</t>
+  </si>
+  <si>
+    <t>Prasanth</t>
+  </si>
+  <si>
+    <t>1. 0</t>
   </si>
 </sst>
 </file>
@@ -429,24 +435,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,6 +454,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,21 +564,54 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -593,65 +632,38 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CA07D3-BAB7-4645-9CB8-65E97A30A16B}">
   <dimension ref="E1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,14 +1058,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="4" spans="5:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E4" s="8" t="s">
@@ -1102,10 +1114,10 @@
       <c r="F9" s="7"/>
     </row>
     <row r="11" spans="5:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1123,7 +1135,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,13 +1148,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1162,497 +1174,497 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31">
+      <c r="A5" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31">
+      <c r="A6" s="18">
         <v>1.2</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31">
+      <c r="A7" s="18">
         <v>1.3</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31">
+      <c r="A8" s="18">
         <v>1.4</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31">
+      <c r="A9" s="18">
         <v>1.5</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31">
+      <c r="A10" s="18">
         <v>1.6</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31">
+      <c r="A11" s="18">
         <v>1.7</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31">
+      <c r="A12" s="18">
         <v>1.8</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31">
+      <c r="A13" s="18">
         <v>1.9</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31">
+      <c r="A14" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="32"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31">
+      <c r="A15" s="18">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31">
+      <c r="A16" s="18">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31">
+      <c r="A19" s="18">
         <v>2.1</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31">
+      <c r="A20" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="32"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31">
+      <c r="A21" s="18">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31">
+      <c r="A22" s="18">
         <v>2.4</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31">
+      <c r="A23" s="18">
         <v>2.5</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31">
+      <c r="A24" s="18">
         <v>2.6</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31">
+      <c r="A28" s="18">
         <v>3.1</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="31">
+      <c r="A29" s="18">
         <v>3.2</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31">
+      <c r="A31" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="32"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31">
+      <c r="A34" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="32"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31">
+      <c r="A35" s="18">
         <v>5.2</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="32"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31">
+      <c r="A38" s="18">
         <v>6.1</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="32"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31">
+      <c r="A41" s="18">
         <v>8.1</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="32"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="31">
+      <c r="A42" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="32"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:5" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="31">
+      <c r="A43" s="18">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="32"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="31">
+      <c r="A44" s="18">
         <v>8.4</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="32"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="31">
+      <c r="A45" s="18">
         <v>8.5</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="32"/>
+      <c r="E45" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1667,123 +1679,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCF4FA2-DCA5-47B2-A71B-6C6FF698B32F}">
   <dimension ref="C1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="17.5546875" style="44" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="27" customWidth="1"/>
     <col min="5" max="5" width="41.21875" customWidth="1"/>
     <col min="6" max="6" width="34.21875" customWidth="1"/>
     <col min="7" max="7" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="4" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C5" s="45">
-        <v>0.1</v>
+      <c r="C5" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="40">
         <v>44886</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="46">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="41">
+      <c r="C6" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="26">
         <v>44884</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="47">
-        <v>0.3</v>
+      <c r="C7" s="28">
+        <v>1.2</v>
       </c>
       <c r="D7" s="42">
         <v>44883</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="43">
+      <c r="C8" s="43">
+        <v>1.3</v>
+      </c>
+      <c r="D8" s="44">
         <v>44885</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="40">
+      <c r="C9" s="46">
+        <v>1.4</v>
+      </c>
+      <c r="D9" s="47">
         <v>44883</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>31</v>
       </c>
     </row>
